--- a/biology/Botanique/Nerine_bowdenii/Nerine_bowdenii.xlsx
+++ b/biology/Botanique/Nerine_bowdenii/Nerine_bowdenii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nerine bowdenii est une espèce de plantes herbacées vivaces. Elle appartient à la famille des Liliaceae selon la classification classique. La classification phylogénétique la place dans la famille des Amaryllidaceae.
 Nerine bowdenii est une plante monocotylédone appartenant à l'ordre des Asparagales, comprenant près d'une cinquantaine de variétés de nérines. 
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nerine bowdenii possède des fleurs roses parfumées qui la distingue de Nerine sarniensis aux fleurs rouges.
 C'est une plante à bulbe de 3 à 5 cm de diamètre. À la fin de l'hiver et au début du printemps, la plante produit plusieurs tiges en forme de feuilles vertes, d'environ 20 cm de long et 1 cm de large, disposés en deux rangées. Les feuilles meurent à la fin du printemps et le bulbe est alors en sommeil jusqu'à la fin de l'été.
